--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9327778359596089</v>
+        <v>0.07508066666666667</v>
       </c>
       <c r="H2">
-        <v>0.9327778359596089</v>
+        <v>0.225242</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05553893917228384</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05553893917228384</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>80.8854473892881</v>
+        <v>81.979392</v>
       </c>
       <c r="N2">
-        <v>80.8854473892881</v>
+        <v>245.938176</v>
       </c>
       <c r="O2">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="P2">
-        <v>0.5401757135953029</v>
+        <v>0.523851352180617</v>
       </c>
       <c r="Q2">
-        <v>75.44815257640496</v>
+        <v>6.155067404288</v>
       </c>
       <c r="R2">
-        <v>75.44815257640496</v>
+        <v>55.395606638592</v>
       </c>
       <c r="S2">
-        <v>0.5401757135953029</v>
+        <v>0.02909414838407793</v>
       </c>
       <c r="T2">
-        <v>0.5401757135953029</v>
+        <v>0.02909414838407792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9327778359596089</v>
+        <v>0.07508066666666667</v>
       </c>
       <c r="H3">
-        <v>0.9327778359596089</v>
+        <v>0.225242</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05553893917228384</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05553893917228384</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.1139377648293</v>
+        <v>22.17197066666667</v>
       </c>
       <c r="N3">
-        <v>22.1139377648293</v>
+        <v>66.515912</v>
       </c>
       <c r="O3">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="P3">
-        <v>0.1476830814204132</v>
+        <v>0.1416797140218155</v>
       </c>
       <c r="Q3">
-        <v>20.62739101282294</v>
+        <v>1.664686338967111</v>
       </c>
       <c r="R3">
-        <v>20.62739101282294</v>
+        <v>14.982177050704</v>
       </c>
       <c r="S3">
-        <v>0.1476830814204132</v>
+        <v>0.00786874101900418</v>
       </c>
       <c r="T3">
-        <v>0.1476830814204132</v>
+        <v>0.00786874101900418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9327778359596089</v>
+        <v>0.07508066666666667</v>
       </c>
       <c r="H4">
-        <v>0.9327778359596089</v>
+        <v>0.225242</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05553893917228384</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05553893917228384</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.9314427611288</v>
+        <v>29.98794266666667</v>
       </c>
       <c r="N4">
-        <v>25.9314427611288</v>
+        <v>89.96382800000001</v>
       </c>
       <c r="O4">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="P4">
-        <v>0.1731774509527354</v>
+        <v>0.1916240646801595</v>
       </c>
       <c r="Q4">
-        <v>24.18827506203619</v>
+        <v>2.251514727375111</v>
       </c>
       <c r="R4">
-        <v>24.18827506203619</v>
+        <v>20.263632546376</v>
       </c>
       <c r="S4">
-        <v>0.1731774509527354</v>
+        <v>0.01064259727221716</v>
       </c>
       <c r="T4">
-        <v>0.1731774509527354</v>
+        <v>0.01064259727221716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.07508066666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.225242</v>
+      </c>
+      <c r="I5">
+        <v>0.05553893917228384</v>
+      </c>
+      <c r="J5">
+        <v>0.05553893917228384</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>22.35431</v>
+      </c>
+      <c r="N5">
+        <v>67.06293000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.142844869117408</v>
+      </c>
+      <c r="P5">
+        <v>0.1428448691174081</v>
+      </c>
+      <c r="Q5">
+        <v>1.678376497673334</v>
+      </c>
+      <c r="R5">
+        <v>15.10538847906</v>
+      </c>
+      <c r="S5">
+        <v>0.007933452496984572</v>
+      </c>
+      <c r="T5">
+        <v>0.007933452496984572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1716996666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.5150990000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="J6">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>81.979392</v>
+      </c>
+      <c r="N6">
+        <v>245.938176</v>
+      </c>
+      <c r="O6">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="P6">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="Q6">
+        <v>14.075834279936</v>
+      </c>
+      <c r="R6">
+        <v>126.682508519424</v>
+      </c>
+      <c r="S6">
+        <v>0.06653451282838084</v>
+      </c>
+      <c r="T6">
+        <v>0.06653451282838084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1716996666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.5150990000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="J7">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.17197066666667</v>
+      </c>
+      <c r="N7">
+        <v>66.515912</v>
+      </c>
+      <c r="O7">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="P7">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="Q7">
+        <v>3.806919972809778</v>
+      </c>
+      <c r="R7">
+        <v>34.26227975528801</v>
+      </c>
+      <c r="S7">
+        <v>0.01799478174651279</v>
+      </c>
+      <c r="T7">
+        <v>0.01799478174651279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1716996666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.5150990000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="J8">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>29.98794266666667</v>
+      </c>
+      <c r="N8">
+        <v>89.96382800000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="P8">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="Q8">
+        <v>5.148919759885779</v>
+      </c>
+      <c r="R8">
+        <v>46.34027783897201</v>
+      </c>
+      <c r="S8">
+        <v>0.02433822827146708</v>
+      </c>
+      <c r="T8">
+        <v>0.02433822827146708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1716996666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.5150990000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="J9">
+        <v>0.1270102912809522</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>22.35431</v>
+      </c>
+      <c r="N9">
+        <v>67.06293000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.142844869117408</v>
+      </c>
+      <c r="P9">
+        <v>0.1428448691174081</v>
+      </c>
+      <c r="Q9">
+        <v>3.838227575563334</v>
+      </c>
+      <c r="R9">
+        <v>34.54404818007001</v>
+      </c>
+      <c r="S9">
+        <v>0.01814276843459149</v>
+      </c>
+      <c r="T9">
+        <v>0.01814276843459149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.9327778359596089</v>
-      </c>
-      <c r="H5">
-        <v>0.9327778359596089</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>20.8083131707729</v>
-      </c>
-      <c r="N5">
-        <v>20.8083131707729</v>
-      </c>
-      <c r="O5">
-        <v>0.1389637540315485</v>
-      </c>
-      <c r="P5">
-        <v>0.1389637540315485</v>
-      </c>
-      <c r="Q5">
-        <v>19.40953332940338</v>
-      </c>
-      <c r="R5">
-        <v>19.40953332940338</v>
-      </c>
-      <c r="S5">
-        <v>0.1389637540315485</v>
-      </c>
-      <c r="T5">
-        <v>0.1389637540315485</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.105076</v>
+      </c>
+      <c r="H10">
+        <v>3.315228</v>
+      </c>
+      <c r="I10">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="J10">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>81.979392</v>
+      </c>
+      <c r="N10">
+        <v>245.938176</v>
+      </c>
+      <c r="O10">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="P10">
+        <v>0.523851352180617</v>
+      </c>
+      <c r="Q10">
+        <v>90.59345859379199</v>
+      </c>
+      <c r="R10">
+        <v>815.3411273441279</v>
+      </c>
+      <c r="S10">
+        <v>0.4282226909681582</v>
+      </c>
+      <c r="T10">
+        <v>0.4282226909681582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.105076</v>
+      </c>
+      <c r="H11">
+        <v>3.315228</v>
+      </c>
+      <c r="I11">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="J11">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.17197066666667</v>
+      </c>
+      <c r="N11">
+        <v>66.515912</v>
+      </c>
+      <c r="O11">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="P11">
+        <v>0.1416797140218155</v>
+      </c>
+      <c r="Q11">
+        <v>24.50171265643733</v>
+      </c>
+      <c r="R11">
+        <v>220.515413907936</v>
+      </c>
+      <c r="S11">
+        <v>0.1158161912562985</v>
+      </c>
+      <c r="T11">
+        <v>0.1158161912562985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.105076</v>
+      </c>
+      <c r="H12">
+        <v>3.315228</v>
+      </c>
+      <c r="I12">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="J12">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>29.98794266666667</v>
+      </c>
+      <c r="N12">
+        <v>89.96382800000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="P12">
+        <v>0.1916240646801595</v>
+      </c>
+      <c r="Q12">
+        <v>33.13895573030933</v>
+      </c>
+      <c r="R12">
+        <v>298.250601572784</v>
+      </c>
+      <c r="S12">
+        <v>0.1566432391364752</v>
+      </c>
+      <c r="T12">
+        <v>0.1566432391364753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.105076</v>
+      </c>
+      <c r="H13">
+        <v>3.315228</v>
+      </c>
+      <c r="I13">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="J13">
+        <v>0.8174507695467639</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.35431</v>
+      </c>
+      <c r="N13">
+        <v>67.06293000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.142844869117408</v>
+      </c>
+      <c r="P13">
+        <v>0.1428448691174081</v>
+      </c>
+      <c r="Q13">
+        <v>24.70321147756</v>
+      </c>
+      <c r="R13">
+        <v>222.32890329804</v>
+      </c>
+      <c r="S13">
+        <v>0.116768648185832</v>
+      </c>
+      <c r="T13">
+        <v>0.116768648185832</v>
       </c>
     </row>
   </sheetData>
